--- a/src/docs/Zelfde DBa Andere Mix.xlsx
+++ b/src/docs/Zelfde DBa Andere Mix.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="11052"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -76,45 +79,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFF3F3F3"/>
       <name val="Arial"/>
     </font>
@@ -124,7 +137,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -163,6 +176,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -173,6 +187,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -181,6 +196,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -191,6 +207,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -199,6 +216,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -207,6 +225,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -217,6 +236,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -225,6 +245,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -235,104 +256,105 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -341,33 +363,44 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Zelfde gemiddelde Db(A), andere bas-mix</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Blad1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>geen exces</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -379,11 +412,117 @@
           <c:cat>
             <c:strRef>
               <c:f>Blad1!$B$7:$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="2">
+                  <c:v>40Hz</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100Hz</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250hz</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000Hz</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000Hz</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10000Hz</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$B$10:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -394,10 +533,16 @@
           <c:tx>
             <c:strRef>
               <c:f>Blad1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dB(A) norm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="CFE2F3"/>
               </a:solidFill>
@@ -409,11 +554,117 @@
           <c:cat>
             <c:strRef>
               <c:f>Blad1!$B$7:$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="2">
+                  <c:v>40Hz</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100Hz</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250hz</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000Hz</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000Hz</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10000Hz</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$B$11:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.88835840257903</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
@@ -424,10 +675,16 @@
           <c:tx>
             <c:strRef>
               <c:f>Blad1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bas exces</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="FF9900"/>
               </a:solidFill>
@@ -439,20 +696,136 @@
           <c:cat>
             <c:strRef>
               <c:f>Blad1!$B$7:$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="2">
+                  <c:v>40Hz</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100Hz</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250hz</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000Hz</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000Hz</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10000Hz</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$B$15:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1699645646"/>
-        <c:axId val="1855610814"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50644864"/>
+        <c:axId val="95092736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1699645646"/>
+        <c:axId val="50644864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,14 +840,16 @@
                 <a:pPr lvl="0">
                   <a:defRPr/>
                 </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -482,14 +857,21 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1855610814"/>
+        <c:crossAx val="95092736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1855610814"/>
+        <c:axId val="95092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -512,14 +894,18 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Geluidsdruk per Frequentie</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -533,13 +919,17 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699645646"/>
+        <c:crossAx val="50644864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -552,16 +942,24 @@
               </a:solidFill>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -575,9 +973,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Diagram"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Diagram"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -586,7 +984,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -595,22 +993,310 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="2" max="2" width="11.0"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="10" width="8.43"/>
-    <col customWidth="1" min="11" max="28" width="7.0"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="10" width="8.44140625" customWidth="1"/>
+    <col min="11" max="28" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +1338,7 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -664,7 +1350,7 @@
       <c r="E3" s="6"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -676,7 +1362,7 @@
       <c r="E4" s="6"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -716,90 +1402,90 @@
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9">
         <v>31.5</v>
       </c>
       <c r="D6" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="G6" s="9">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I6" s="9">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="J6" s="9">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="K6" s="9">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="L6" s="9">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="M6" s="9">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="N6" s="9">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="O6" s="9">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="P6" s="9">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="Q6" s="9">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="R6" s="9">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="9">
-        <v>1250.0</v>
+        <v>1250</v>
       </c>
       <c r="T6" s="9">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="U6" s="9">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="V6" s="9">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="W6" s="9">
-        <v>3150.0</v>
+        <v>3150</v>
       </c>
       <c r="X6" s="9">
-        <v>4000.0</v>
+        <v>4000</v>
       </c>
       <c r="Y6" s="9">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="Z6" s="9">
-        <v>6300.0</v>
+        <v>6300</v>
       </c>
       <c r="AA6" s="9">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="AB6" s="7">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -812,7 +1498,7 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -866,7 +1552,7 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -889,10 +1575,10 @@
         <v>-22.5</v>
       </c>
       <c r="H8" s="13">
-        <v>-19.1</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I8" s="13">
-        <v>-16.1</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="J8" s="13">
         <v>-13.4</v>
@@ -919,13 +1605,13 @@
         <v>-0.8</v>
       </c>
       <c r="R8" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
         <v>0.6</v>
       </c>
       <c r="T8" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="14">
         <v>1.2</v>
@@ -937,7 +1623,7 @@
         <v>1.2</v>
       </c>
       <c r="X8" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="14">
         <v>0.5</v>
@@ -946,7 +1632,7 @@
         <v>-0.1</v>
       </c>
       <c r="AA8" s="13">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AB8" s="15">
         <v>-2.5</v>
@@ -962,99 +1648,99 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="16"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="18">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="C10" s="19">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="D10" s="19">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="E10" s="19">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="F10" s="19">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="G10" s="19">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="H10" s="19">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="I10" s="19">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="J10" s="19">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K10" s="19">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="L10" s="19">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="M10" s="19">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="N10" s="19">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="O10" s="19">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="P10" s="19">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="19">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="R10" s="19">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="S10" s="19">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="T10" s="19">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="U10" s="19">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="V10" s="19">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="W10" s="19">
-        <v>81.0</v>
-      </c>
-      <c r="X10" s="19" t="str">
-        <f t="shared" ref="X10:AB10" si="1">W10</f>
         <v>81</v>
       </c>
-      <c r="Y10" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="X10" s="19">
+        <f t="shared" ref="X10:AB10" si="0">W10</f>
         <v>81</v>
       </c>
-      <c r="Z10" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="Y10" s="19">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="AA10" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="Z10" s="19">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="AB10" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AA10" s="19">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="AB10" s="19">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="AC10" s="4"/>
@@ -1068,117 +1754,117 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="20">
         <f t="array" ref="B11">10*LOG(SUM(10^((B10:AB10+B$8:AB$8)/10)))</f>
-        <v>96.9</v>
-      </c>
-      <c r="C11" s="21" t="str">
-        <f t="shared" ref="C11:AB11" si="2">B11</f>
-        <v>96.9</v>
-      </c>
-      <c r="D11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="E11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="F11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="G11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="H11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="I11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="J11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="K11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="L11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="M11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="N11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="O11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="P11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="Q11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="R11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="S11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="T11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="U11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="V11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="W11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="X11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="Y11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="Z11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="AA11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
-      </c>
-      <c r="AB11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>96.9</v>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" ref="C11:AB11" si="1">B11</f>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="R11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="T11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="U11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="V11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="W11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="X11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="Y11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="Z11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="AA11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
+      </c>
+      <c r="AB11" s="21">
+        <f t="shared" si="1"/>
+        <v>96.88835840257903</v>
       </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -1191,117 +1877,117 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="22">
         <f t="array" ref="B12">10*LOG(SUM(10^((B10:AB10)/10)))</f>
-        <v>111.6</v>
-      </c>
-      <c r="C12" s="23" t="str">
-        <f t="shared" ref="C12:AB12" si="3">B12</f>
-        <v>111.6</v>
-      </c>
-      <c r="D12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="E12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="F12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="G12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="H12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="I12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="J12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="K12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="L12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="M12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="N12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="O12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="P12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="Q12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="R12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="S12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="T12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="U12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="V12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="W12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="X12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="Y12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="Z12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="AA12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
-      </c>
-      <c r="AB12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>111.6</v>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" ref="C12:AB12" si="2">B12</f>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="R12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="S12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="U12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="W12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="X12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="Y12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="Z12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="AA12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
+      </c>
+      <c r="AB12" s="23">
+        <f t="shared" si="2"/>
+        <v>111.60750528250402</v>
       </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -1314,24 +2000,24 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="25">
         <f>B12-B11</f>
-        <v>14.7</v>
+        <v>14.719146879924992</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="26">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C15" s="26">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="D15" s="26">
         <v>104.5</v>
@@ -1349,64 +2035,64 @@
         <v>104.5</v>
       </c>
       <c r="I15" s="26">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="J15" s="26">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="26">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="L15" s="26">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="M15" s="26">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="N15" s="26">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="O15" s="26">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="P15" s="26">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="26">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="R15" s="26">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="S15" s="26">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="T15" s="26">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="U15" s="26">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="V15" s="26">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="W15" s="26">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="X15" s="26">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="Y15" s="26">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="Z15" s="26">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="AA15" s="26">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="AB15" s="26">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -1419,117 +2105,117 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="20" t="str">
+      <c r="B16" s="20">
         <f t="array" ref="B16">10*LOG(SUM(10^((B15:AB15+B$8:AB$8)/10)))</f>
-        <v>96.9</v>
-      </c>
-      <c r="C16" s="21" t="str">
-        <f t="shared" ref="C16:AB16" si="4">B16</f>
-        <v>96.9</v>
-      </c>
-      <c r="D16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="E16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="F16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="G16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="H16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="I16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="J16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="K16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="L16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="M16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="N16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="O16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="P16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="Q16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="R16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="S16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="T16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="U16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="V16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="W16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="X16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="Y16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="Z16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="AA16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="AB16" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>96.9</v>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" ref="C16:AB16" si="3">B16</f>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="R16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="T16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="U16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="V16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="W16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="X16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="Y16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="Z16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="AA16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
+      </c>
+      <c r="AB16" s="21">
+        <f t="shared" si="3"/>
+        <v>96.941071530353682</v>
       </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -1542,129 +2228,130 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="27" t="str">
+      <c r="B17" s="27">
         <f t="array" ref="B17">10*LOG(SUM(10^((B15:AB15)/10)))</f>
-        <v>113.4</v>
-      </c>
-      <c r="C17" s="23" t="str">
-        <f t="shared" ref="C17:AB17" si="5">B17</f>
-        <v>113.4</v>
-      </c>
-      <c r="D17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="E17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="F17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="G17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="H17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="I17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="J17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="K17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="L17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="M17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="N17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="O17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="P17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="Q17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="R17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="S17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="T17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="U17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="V17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="W17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="X17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="Y17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="Z17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="AA17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
-      </c>
-      <c r="AB17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>113.4</v>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" ref="C17:AB17" si="4">B17</f>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="Q17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="R17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="S17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="T17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="W17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="X17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="Y17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="Z17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="AA17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
+      </c>
+      <c r="AB17" s="23">
+        <f t="shared" si="4"/>
+        <v>113.4278563852226</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="25">
         <f>B17-B16</f>
-        <v>16.5</v>
+        <v>16.486784854868915</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>